--- a/biology/Médecine/Institut_Pasteur/Institut_Pasteur.xlsx
+++ b/biology/Médecine/Institut_Pasteur/Institut_Pasteur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F10"/>
+  <dimension ref="A1:H15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">L'Institut Pasteur est une fondation française privée à but non lucratif, sise à Paris, qui se consacre à l'étude de la biologie, des micro-organismes, des maladies et des vaccins.
-Créé en 1888 grâce à une souscription publique internationale, il est ainsi nommé d'après Louis Pasteur[1], son fondateur et premier directeur qui, en 1885, a mis au point le premier vaccin contre la rage.
+Créé en 1888 grâce à une souscription publique internationale, il est ainsi nommé d'après Louis Pasteur, son fondateur et premier directeur qui, en 1885, a mis au point le premier vaccin contre la rage.
 Depuis plus d’un siècle, l’Institut Pasteur est à la pointe de la lutte contre les maladies infectieuses. Cette organisation internationale de recherche a été la première à isoler en 1983 le virus de l'immunodéficience humaine (VIH), virus qui provoque le syndrome d'immunodéficience acquise (SIDA). Au fil des années, il a été à l'origine de découvertes révolutionnaires qui ont permis à la médecine de contrôler des maladies virulentes, telles que la diphtérie, le tétanos, la tuberculose, la poliomyélite, la grippe, la fièvre jaune, la peste épidémique, l'hépatite B, le SIDA. Depuis 1908, dix scientifiques de l’institut ont été récompensés par un prix Nobel de physiologie ou médecine.
-Depuis le 1er juillet 2021, l’Institut Pasteur est un « organisme de recherche partenaire » d’Université Paris-Cité[2].
+Depuis le 1er juillet 2021, l’Institut Pasteur est un « organisme de recherche partenaire » d’Université Paris-Cité.
 </t>
         </is>
       </c>
@@ -516,28 +528,138 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Fondation
-En 1886, les premiers dons en vue de la création d'un Institut antirabique sont reçus en janvier et la souscription pour la fondation d'un Institut vaccinal contre la rage est lancée le 1er mars 1886. Le 11 mai suivant, un gala se tient au Trocadéro en faveur de l'Institut Pasteur[3].
+          <t>Fondation</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 1886, les premiers dons en vue de la création d'un Institut antirabique sont reçus en janvier et la souscription pour la fondation d'un Institut vaccinal contre la rage est lancée le 1er mars 1886. Le 11 mai suivant, un gala se tient au Trocadéro en faveur de l'Institut Pasteur.
 Créé par un décret du 4 juin 1887, l'institut est inauguré le 14 novembre 1888 par le président Sadi Carnot.
-Fondateur
-L’Institut Pasteur est fondé par Louis Pasteur, scientifique français que ses premières expériences sur la fermentation, réalisées à Lille pour les industries de la bière, ont mené à des recherches fondamentales en bactériologie. En effet, au moment où il fonde son institut, Louis Pasteur a déjà découvert le principe de la stérilisation, connu sous le nom de pasteurisation et qui régit aujourd'hui la pratique universelle de l’antisepsie. D’autre part, il a déjà développé des techniques de vaccination contre les infections bactériennes et il est connu pour avoir mis au point un vaccin efficace contre la rage.
-Louis Pasteur lui destine alors trois objectifs : « [Il] sera à la fois un dispensaire pour le traitement de la rage, un centre de recherche pour les maladies infectieuses et un centre d'enseignement pour les études qui relèvent de la microbie [4]. »
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Fondateur</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Institut Pasteur est fondé par Louis Pasteur, scientifique français que ses premières expériences sur la fermentation, réalisées à Lille pour les industries de la bière, ont mené à des recherches fondamentales en bactériologie. En effet, au moment où il fonde son institut, Louis Pasteur a déjà découvert le principe de la stérilisation, connu sous le nom de pasteurisation et qui régit aujourd'hui la pratique universelle de l’antisepsie. D’autre part, il a déjà développé des techniques de vaccination contre les infections bactériennes et il est connu pour avoir mis au point un vaccin efficace contre la rage.
+Louis Pasteur lui destine alors trois objectifs : « [Il] sera à la fois un dispensaire pour le traitement de la rage, un centre de recherche pour les maladies infectieuses et un centre d'enseignement pour les études qui relèvent de la microbie . »
 Pasteur s’intéresse tout autant à la recherche fondamentale qu’à ses applications pratiques, et les cinq premiers départements de son institut sont dirigés par des savants de formation très diverse. Un normalien, Émile Duclaux, est chargé de la recherche en microbiologie, un autre, Charles Chamberland, de la recherche sur les micro-organismes appliquée à l’hygiène. Un biologiste, Ilya Ilitch Metchnikov, s’occupe de la recherche en morphologie des micro-organismes et deux médecins, Jacques-Joseph Grancher et Émile Roux, de la recherche en technique microbienne. Un an après l'inauguration de l’institut, Roux inaugure le premier cours de microbiologie jamais dispensé, alors intitulé cours de microbie technique.
-Après Pasteur
-Durant l'Occupation, la direction de l'Institut Pasteur couvre l'activité résistante d'environ 10 % de ses chercheurs[5], mais échoue à empêcher l'arrestation en ses murs du pastorien Eugène Wollman qui sera, ainsi que son épouse, Elisabeth Wollman, déporté et assassiné à Auschwitz[6].
-Histoire associée à de nombreuses découvertes
-Les successeurs de Pasteur maintiennent la tradition, comme le montre cette chronologie de quelques réalisations de l'institut :
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Après Pasteur</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Durant l'Occupation, la direction de l'Institut Pasteur couvre l'activité résistante d'environ 10 % de ses chercheurs, mais échoue à empêcher l'arrestation en ses murs du pastorien Eugène Wollman qui sera, ainsi que son épouse, Elisabeth Wollman, déporté et assassiné à Auschwitz.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Histoire associée à de nombreuses découvertes</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les successeurs de Pasteur maintiennent la tradition, comme le montre cette chronologie de quelques réalisations de l'institut :
 1889 : Émile Roux et Alexandre Yersin décrivent le mécanisme d’action de Corynebacterium diphtheriae et mettent au point un traitement de la diphtérie par les antitoxines ;
 1894 : Alexandre Yersin découvre l’élément pathogène de la peste bubonique, Yersinia pestis ;
 1898 : Paul-Louis Simond découvre le rôle de la puce dans la transmission de la peste ;
 1899 : Inauguration de l'Institut Pasteur de Lille, structure indépendante dont le but premier est à l'origine d'être un centre de production de sérum antidiphtérique ;
-1900 : l'hôpital Pasteur est créé par des disciples de Pasteur, Émile Roux et Louis Martin[7].
+1900 : l'hôpital Pasteur est créé par des disciples de Pasteur, Émile Roux et Louis Martin.
 1907 : Alphonse Laveran reçoit le prix Nobel pour ses recherches, effectuées en collaboration avec Félix Mesnil, sur le rôle des protozoaires parasites du sang dans certaines maladies, et notamment la Malaria ;
 1908 : Ilya Ilitch Metchnikov reçoit le prix Nobel, pour ses contributions à la compréhension du fonctionnement du système immunitaire ;
 1910 : Constantin Levaditi et Karl Landsteiner démontrent que la poliomyélite est due à un virus filtrant ;
-1911 : Sous l'impulsion d'Émile Roux, l'Institut Pasteur d'Algérie est créé. Edmond et Étienne Sergent mettent en place une doctrine posant les bases de la lutte antipaludique en Afrique du Nord et découvrent de nombreux traitements pour lutter contre les maux endémiques touchant la population d'Algérie et son bétail. Ils participent ainsi à sauver de nombreuses vies et favorisent le développement de l'Algérie[8] ;
+1911 : Sous l'impulsion d'Émile Roux, l'Institut Pasteur d'Algérie est créé. Edmond et Étienne Sergent mettent en place une doctrine posant les bases de la lutte antipaludique en Afrique du Nord et découvrent de nombreux traitements pour lutter contre les maux endémiques touchant la population d'Algérie et son bétail. Ils participent ainsi à sauver de nombreuses vies et favorisent le développement de l'Algérie ;
 1911 : Ernest Fourneau crée le laboratoire de chimie thérapeutique, d'où sortiront de très nombreux médicaments ;
-1914-1918 : des chercheurs de l'institut mettent au point un gaz de combat efficace, la chloropicrine[9] ;
+1914-1918 : des chercheurs de l'institut mettent au point un gaz de combat efficace, la chloropicrine ;
 1915 : L'Institut Pasteur fournit 6 millions de doses de sérum antitétanique pendant toute la durée de la guerre ;
 1917 : Félix d'Hérelle découvre le bactériophage, virus qui se répand uniquement à l’intérieur des bactéries ;
 1919 : Jules Bordet reçoit le prix Nobel pour ses découvertes sur le système immunitaire, et spécialement sur les implications des anticorps et sur les mécanismes de l’action du complément. En 1909, il fonde, à Bruxelles, l'Institut Pasteur du Brabant devenu Institut Pasteur de Bruxelles ;
@@ -561,39 +683,76 @@
 Une erreur importante de l'institut va être d’ignorer, en 1897, le mémoire d'Ernest Duchesne sur l'utilisation de Penicillium glaucum pour soigner les infections. L'exploitation précoce de cette découverte aurait pu sauver des millions de vies.
 L'institut ouvre une nouvelle ère de médecine préventive avec le développement de vaccins contre la tuberculose, la diphtérie, le tétanos, la fièvre jaune, la poliomyélite et l’hépatite B. Pour ce qui est de la médecine curative, c'est en 1911 qu'elle prend son essor à l'institut, année où Ernest Fourneau crée le laboratoire de chimie thérapeutique, qu'il dirige jusqu'en 1944, et d'où sortent de très nombreux médicaments, parmi lesquels on peut citer le Stovarsol, premier arsenical thérapeutique pentavalent, le Prosympal, premier adrénolytique alpha de synthèse, le Pipéroxane, premier antihistaminique, le Dacorène, premier médicament actif sur le rythme cardiaque, le Dilvasène, premier médicament de synthèse à effet muscarinique commercialement exploitable, ou le Flaxédil, premier curarisant de synthèse. La découverte des propriétés thérapeutiques du sulfamide, par J. et Th. Tréfouël, F. Nitti et D. Bovet, dans le laboratoire de Fourneau, ouvre la voie de la sulfamidothérapie.
 Depuis la Seconde Guerre mondiale, les chercheurs de Pasteur se sont essentiellement concentrés sur la biologie moléculaire. Leurs réussites ont été reconnues en 1965, lorsque le prix Nobel a été attribué collectivement à François Jacob, Jacques Monod et André Lwoff pour leurs travaux sur la régulation des virus. En 1985, le premier vaccin humain obtenu par génie génétique à partir de cellules animales, le vaccin contre l’hépatite B, est développé par Pierre Tiollais et ses collaborateurs.
-Organisation à travers les temps
-L'Institut Pasteur connaît une situation financière délicate dans les années 1960 qui le pousse à demander des subventions de l’État français en 1965. Le déficit, issu d'une situation délicate déjà signalée en 1934 par Alfred Lacroix, est alors en 1961 de dix millions de francs[10].
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Histoire</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Organisation à travers les temps</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L'Institut Pasteur connaît une situation financière délicate dans les années 1960 qui le pousse à demander des subventions de l’État français en 1965. Le déficit, issu d'une situation délicate déjà signalée en 1934 par Alfred Lacroix, est alors en 1961 de dix millions de francs.
 Cet appui lui est accordé à la condition que les activités de production et de commercialisation soient clairement distinctes de la recherche. Après un premier accord avec le laboratoire Roger Bellon, l'institut finit par créer sa propre entreprise en 1972, Institut Pasteur Production (IPP), désormais Sanofi Pasteur. En 1974, Sanofi entre à hauteur de 35 % dans le capital d'IPP, cette participation devient majoritaire en 1980.
-En janvier 1985, les deux secteurs de production sont séparés entre Pasteur-Sanofi diagnostics à qui revient la production des produits de diagnostic (réactifs biologiques) et Pasteur-Mérieux, pour la production de vaccins et de sérums. L'institut Mérieux devient, lui aussi, majoritaire (51 %) dans son association avec l'Institut Pasteur[9].
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
+En janvier 1985, les deux secteurs de production sont séparés entre Pasteur-Sanofi diagnostics à qui revient la production des produits de diagnostic (réactifs biologiques) et Pasteur-Mérieux, pour la production de vaccins et de sérums. L'institut Mérieux devient, lui aussi, majoritaire (51 %) dans son association avec l'Institut Pasteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
         <is>
           <t>L’Institut Pasteur aujourd’hui</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>L'Institut Pasteur de Paris est composé de 144 unités de recherche, 24 plateformes technologiques et de près de 2 930 personnes. On dénombre 500 scientifiques permanents, et 600 de passage chaque année, originaires de 70 pays différents. Il dispose aussi de centres à Pointe-à-Pitre (Guadeloupe), Cayenne (Guyane) et Nouméa (Nouvelle-Calédonie).
 L'institut est aussi au centre d'un réseau mondial de 31 instituts (23 000 salariés) qui se consacrent notamment aux problèmes médicaux dans les pays en voie de développement ; il comprend aussi un centre d'étude diplômant et une unité de ciblage épidémiologique.
@@ -625,33 +784,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
         <is>
           <t>Centres de recherche</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">L’Institut Pasteur de Paris possède douze départements de recherche[11] :
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">L’Institut Pasteur de Paris possède douze départements de recherche :
 Biologie cellulaire et infection ;
 Biologie computationnelle ;
 Biologie du développement et cellules souches ;
@@ -670,139 +831,6 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Centre d’enseignement</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Depuis sa fondation, l’Institut Pasteur a réuni des scientifiques de nombreuses disciplines différentes pour des études supérieures. Aujourd’hui, approximativement 300 étudiants diplômés et 500 stagiaires postdoctoraux de 40 pays différents participent à des programmes d’études supérieures à l’institut. Il y a des pharmaciens et des vétérinaires, aussi bien que des médecins, des chimistes et d’autres scientifiques.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Centres de référence</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Des échantillons de bactéries et de virus en provenance de nombreux pays sont envoyés aux centres de référence de l’institut pour être identifiés. L'Institut Pasteur de Paris héberge 14 centres nationaux de référence (CNR) sur des maladies ou pathogènes particuliers (grippe, rage, Listeria, etc.) ainsi que sept centres collaborateurs de l'OMS (CCOMS) et de l'OIE (CCOIE).
-En plus de servir de centre épidémiologique, l’institut a une action de conseil auprès du gouvernement français et de l’Organisation mondiale de la santé (OMS) des Nations unies. Les scientifiques de l’institut aident aussi à surveiller les épidémies et à contrôler les éruptions de maladies infectieuses dans le monde entier. Ces activités ont créé une collaboration rapprochée entre l’institut et les Centres pour le contrôle et la prévention des maladies aux États-Unis.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Vaccins et produits d’aide au diagnostic</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La production et la vente de tests de diagnostic développés dans les laboratoires de l’institut étaient sous la responsabilité de Sanofi Diagnostics Pasteur, tandis que la production et vente des vaccins étaient sous la responsabilité de Pasteur Mérieux, Sérums et Vaccins. Ces deux entreprises sont, depuis 2004, regroupées sous le nom de Sanofi Pasteur (filiale de la firme pharmaceutique française Sanofi) qui gère donc l'ensemble de ces activités.
-</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>Portail:Médecine/Articles liés</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>Structure et ressources</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Direction de l'institut
-En tant qu’organisation privée à but non lucratif, l'institut est dirigé par un conseil d'administration présidé par Christian Vigouroux depuis 2013[12]. La directrice générale est Yasmine Belkaid[13] depuis le 1er janvier 2024.
-Directeurs
-Sous-directeurs
-Ressources
-Financé par de nombreuses sources, l’institut assure son autonomie et garantit l’indépendance de ses scientifiques. Les fonds de l’institut viennent, entre autres, des subventions du gouvernement français, des honoraires de consultation, des droits de licence, des revenus de différents contrats, de dons privés et de financements de projets scientifiques français (ANR...), européens (EU) et internationaux.
-Pour promouvoir son action auprès du public et lui permettre de faire appel au don en confiance, la section française de l’organisation, en tant qu’association, adhère au Don en confiance[16].
-Chaque année au mois d’octobre, l’Institut Pasteur organise le Pasteurdon, événement solidaire faisant appel à la générosité publique pour participer au financement des travaux de recherche de l’institut.
-Du 20 au 22 septembre 2019 a eu lieu le Z Event 2019 qui a permis de récolter 3 510 682 euros directement versés à l'Institut Pasteur[17].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="10">
       <c r="A10" s="1" t="n">
         <v>8</v>
@@ -824,14 +852,193 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>Centre d’enseignement</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Depuis sa fondation, l’Institut Pasteur a réuni des scientifiques de nombreuses disciplines différentes pour des études supérieures. Aujourd’hui, approximativement 300 étudiants diplômés et 500 stagiaires postdoctoraux de 40 pays différents participent à des programmes d’études supérieures à l’institut. Il y a des pharmaciens et des vétérinaires, aussi bien que des médecins, des chimistes et d’autres scientifiques.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Centres de référence</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Des échantillons de bactéries et de virus en provenance de nombreux pays sont envoyés aux centres de référence de l’institut pour être identifiés. L'Institut Pasteur de Paris héberge 14 centres nationaux de référence (CNR) sur des maladies ou pathogènes particuliers (grippe, rage, Listeria, etc.) ainsi que sept centres collaborateurs de l'OMS (CCOMS) et de l'OIE (CCOIE).
+En plus de servir de centre épidémiologique, l’institut a une action de conseil auprès du gouvernement français et de l’Organisation mondiale de la santé (OMS) des Nations unies. Les scientifiques de l’institut aident aussi à surveiller les épidémies et à contrôler les éruptions de maladies infectieuses dans le monde entier. Ces activités ont créé une collaboration rapprochée entre l’institut et les Centres pour le contrôle et la prévention des maladies aux États-Unis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Vaccins et produits d’aide au diagnostic</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La production et la vente de tests de diagnostic développés dans les laboratoires de l’institut étaient sous la responsabilité de Sanofi Diagnostics Pasteur, tandis que la production et vente des vaccins étaient sous la responsabilité de Pasteur Mérieux, Sérums et Vaccins. Ces deux entreprises sont, depuis 2004, regroupées sous le nom de Sanofi Pasteur (filiale de la firme pharmaceutique française Sanofi) qui gère donc l'ensemble de ces activités.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Structure et ressources</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Direction de l'institut</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En tant qu’organisation privée à but non lucratif, l'institut est dirigé par un conseil d'administration présidé par Christian Vigouroux depuis 2013. La directrice générale est Yasmine Belkaid depuis le 1er janvier 2024.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Structure et ressources</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Ressources</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr"/>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Financé par de nombreuses sources, l’institut assure son autonomie et garantit l’indépendance de ses scientifiques. Les fonds de l’institut viennent, entre autres, des subventions du gouvernement français, des honoraires de consultation, des droits de licence, des revenus de différents contrats, de dons privés et de financements de projets scientifiques français (ANR...), européens (EU) et internationaux.
+Pour promouvoir son action auprès du public et lui permettre de faire appel au don en confiance, la section française de l’organisation, en tant qu’association, adhère au Don en confiance.
+Chaque année au mois d’octobre, l’Institut Pasteur organise le Pasteurdon, événement solidaire faisant appel à la générosité publique pour participer au financement des travaux de recherche de l’institut.
+Du 20 au 22 septembre 2019 a eu lieu le Z Event 2019 qui a permis de récolter 3 510 682 euros directement versés à l'Institut Pasteur.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Institut_Pasteur</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
           <t>Dysfonctionnements</t>
         </is>
       </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t xml:space="preserve">En 2014, l’Institut Pasteur « égare » 2 349 échantillons de SRAS au cours d'un inventaire réglementaire[18].
-Le 19 décembre 2016, une enquête préliminaire est ouverte par le parquet de Paris à la suite d'un signalement de l'Agence nationale de sécurité du médicament (ANSM) au titre de l'article 40 du code de procédure pénale. L'agence reproche à l'Institut Pasteur de ne pas lui avoir signalé, comme le prévoit la loi, un incident portant sur des échantillons de virus MERS-CoV[19]. L'enquête judiciaire pointe les « conditions dans lesquelles de dangereux virus ont pu arriver en son sein en octobre 2015, de Corée du Sud, sans que les autorités sanitaires soient au courant »[20]. La direction de l'Institut avait pris la décision de détruire les échantillons du virus sans en informer au préalable l'autorité sanitaire ni déclarer l'incident sous les 48 heures, comme le veut la loi.
-En 2017, dans le cadre d'une enquête administrative lancée l'année précédente, la direction est mise en cause par l'Inspection générale des affaires sociales qui achoppe sur certains aspects de la gestion de l'Institut[21].
+      <c r="F15" t="inlineStr"/>
+      <c r="G15" t="inlineStr"/>
+      <c r="H15" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2014, l’Institut Pasteur « égare » 2 349 échantillons de SRAS au cours d'un inventaire réglementaire.
+Le 19 décembre 2016, une enquête préliminaire est ouverte par le parquet de Paris à la suite d'un signalement de l'Agence nationale de sécurité du médicament (ANSM) au titre de l'article 40 du code de procédure pénale. L'agence reproche à l'Institut Pasteur de ne pas lui avoir signalé, comme le prévoit la loi, un incident portant sur des échantillons de virus MERS-CoV. L'enquête judiciaire pointe les « conditions dans lesquelles de dangereux virus ont pu arriver en son sein en octobre 2015, de Corée du Sud, sans que les autorités sanitaires soient au courant ». La direction de l'Institut avait pris la décision de détruire les échantillons du virus sans en informer au préalable l'autorité sanitaire ni déclarer l'incident sous les 48 heures, comme le veut la loi.
+En 2017, dans le cadre d'une enquête administrative lancée l'année précédente, la direction est mise en cause par l'Inspection générale des affaires sociales qui achoppe sur certains aspects de la gestion de l'Institut.
 </t>
         </is>
       </c>
